--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.577204</v>
+        <v>12.944643</v>
       </c>
       <c r="N2">
-        <v>73.731612</v>
+        <v>38.833929</v>
       </c>
       <c r="O2">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="P2">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="Q2">
-        <v>1.144535813076</v>
+        <v>0.602819079867</v>
       </c>
       <c r="R2">
-        <v>10.300822317684</v>
+        <v>5.425371718803</v>
       </c>
       <c r="S2">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="T2">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>45.100356</v>
       </c>
       <c r="O3">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="P3">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="Q3">
         <v>0.7000928261880001</v>
@@ -632,10 +632,10 @@
         <v>6.300835435692001</v>
       </c>
       <c r="S3">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="T3">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>19.65322</v>
       </c>
       <c r="O4">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="P4">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="Q4">
         <v>0.30507693406</v>
@@ -694,10 +694,10 @@
         <v>2.74569240654</v>
       </c>
       <c r="S4">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="T4">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
     </row>
   </sheetData>
